--- a/database_project/hospital.xlsx
+++ b/database_project/hospital.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katuk\OneDrive\Desktop\dbproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katuk\OneDrive\Desktop\database_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EE81079-4F18-4916-9A96-A4661B5B750F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47110658-C9D8-4591-8D9D-E448B8684C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{176FE5A3-CEE6-45EE-B957-23DE0F4BF80D}"/>
   </bookViews>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEA396F-4687-421C-824B-BFDB14242264}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -667,7 +667,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1">
         <v>5000000</v>
@@ -711,7 +711,7 @@
         <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J3">
         <v>502</v>
@@ -743,7 +743,7 @@
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4">
         <v>503</v>
@@ -775,7 +775,7 @@
         <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5">
         <v>504</v>
@@ -807,7 +807,7 @@
         <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J6">
         <v>505</v>
@@ -839,7 +839,7 @@
         <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J7">
         <v>506</v>
@@ -871,7 +871,7 @@
         <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J8">
         <v>507</v>
@@ -903,7 +903,7 @@
         <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J9">
         <v>508</v>
@@ -935,7 +935,7 @@
         <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J10">
         <v>509</v>
@@ -955,7 +955,7 @@
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1">
         <v>450000</v>
@@ -999,7 +999,7 @@
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12">
         <v>511</v>
@@ -1031,7 +1031,7 @@
         <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J13">
         <v>512</v>
@@ -1063,7 +1063,7 @@
         <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14">
         <v>513</v>
@@ -1083,7 +1083,7 @@
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F15" s="1">
         <v>2500000</v>
@@ -1127,7 +1127,7 @@
         <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J16">
         <v>515</v>
@@ -1147,7 +1147,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1">
         <v>600000</v>
@@ -1191,7 +1191,7 @@
         <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J18">
         <v>517</v>
@@ -1211,7 +1211,7 @@
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1">
         <v>3000000</v>
@@ -1243,7 +1243,7 @@
         <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1">
         <v>40000000</v>
@@ -1287,7 +1287,7 @@
         <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J21">
         <v>520</v>
@@ -1319,7 +1319,7 @@
         <v>45</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J22">
         <v>521</v>
@@ -1351,7 +1351,7 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J23">
         <v>522</v>
@@ -1383,7 +1383,7 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J24">
         <v>523</v>
@@ -1403,7 +1403,7 @@
         <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F25" s="1">
         <v>60000000</v>
@@ -1435,7 +1435,7 @@
         <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F26" s="1">
         <v>40000000</v>
